--- a/doc/运营情况.xlsx
+++ b/doc/运营情况.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="56">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,20 +138,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.4-6.3房租费</t>
-    </r>
+    <t>12.4-3.3房租费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔令飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -159,15 +154,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12.4-3.3房租费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔令飞</t>
+    <t>软装第一笔费用（网购家具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1519退货费（网购家具）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔提前垫付（最后补款）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     2020/9/8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -175,27 +182,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软装第一笔费用（网购家具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1519退货费（网购家具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔提前垫付（最后补款）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     2020/9/8</t>
+    <t>2021/1月运营毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/12月运营毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/11月运营毛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020/10月运营毛利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -203,26 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/1月运营毛利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/12月运营毛利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/11月运营毛利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020/10月运营毛利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2020/9月运营毛利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,52 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预缴纳房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期的好处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.已经有运营的用户量和名气</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.节约了装修的时间和成本（一般周期一个多月）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.房租的价格比现在租房的价格便宜很多</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共计盈利情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,14 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.运营商可以活得新的加盟费用（可否都帮忙承担一些）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.和房东签约的是押一付三且是第四年涨房租优势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共计9511.14（两次结清）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,7 +242,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>转让盈利费用</t>
+    <t>预期转让费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际盈利费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,12 +323,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,12 +356,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -446,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -465,49 +390,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1226,26 +1145,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>35</v>
+      <c r="F1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="J1" s="3"/>
     </row>
@@ -1257,7 +1176,7 @@
         <v>8000</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1367,7 +1286,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
@@ -1375,7 +1294,7 @@
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>1000</v>
@@ -1384,13 +1303,13 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>58</v>
+      <c r="F9" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1401,15 +1320,15 @@
         <v>8511.14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -1419,20 +1338,20 @@
         <v>-262.56</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="12">
+      <c r="A12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="11">
         <f>SUM(B2:B11)</f>
         <v>44604.18</v>
       </c>
@@ -1440,8 +1359,8 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
-        <v>45</v>
+      <c r="A13" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1452,10 +1371,10 @@
         <v>5.29</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -1472,7 +1391,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
@@ -1486,10 +1405,10 @@
         <v>2241.41</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>16</v>
@@ -1503,10 +1422,10 @@
         <v>3326.49</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>16</v>
@@ -1524,10 +1443,10 @@
         <v>3123.97</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>16</v>
@@ -1558,121 +1477,86 @@
         <v>-6300</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="20"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="16"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>55</v>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="10">
+      <c r="A23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="9">
         <f>SUM(B14:B20)</f>
         <v>-4198.66</v>
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="10">
-        <f>SUM(C24,D24)</f>
-        <v>-9198.66</v>
-      </c>
-      <c r="C24" s="6">
-        <v>-4198.66</v>
-      </c>
-      <c r="D24" s="6">
-        <v>-5000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A30" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
-        <v>44252</v>
-      </c>
-      <c r="B31">
-        <v>6300</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>57</v>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="17"/>
+      <c r="B26">
+        <f>SUM(C26-D26)</f>
+        <v>-5802.8399999999965</v>
+      </c>
+      <c r="C26">
+        <v>43000</v>
+      </c>
+      <c r="D26">
+        <f>SUM(E26+F26)</f>
+        <v>48802.84</v>
+      </c>
+      <c r="E26">
+        <v>44604.18</v>
+      </c>
+      <c r="F26">
+        <v>4198.66</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
